--- a/models/metrics_summary_file.xlsx
+++ b/models/metrics_summary_file.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9471559333115396</v>
+        <v>0.9486052086738586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9405070340295406</v>
+        <v>0.9433161214647867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9471559333115396</v>
+        <v>0.9486052086738586</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9368384982742496</v>
+        <v>0.9382786794254259</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05084913550528217</v>
+        <v>0.04877967799411079</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0538424510280997</v>
+        <v>0.05065704200262323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05084913550528217</v>
+        <v>0.04877967799411079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05347600753096744</v>
+        <v>0.0515471361401281</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7797482837528604</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7790272637402382</v>
+        <v>0.7778073184435872</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7797482837528604</v>
+        <v>0.7791762013729977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7769774088138749</v>
+        <v>0.7768471823643884</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9393592677345537</v>
+        <v>0.9387871853546911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9271102665462825</v>
+        <v>0.9303150110476461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9393592677345537</v>
+        <v>0.9387871853546911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9273993582002225</v>
+        <v>0.9243321669195723</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9607170099160945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9534824095245162</v>
+        <v>0.9572450669015721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9588100686498856</v>
+        <v>0.9607170099160945</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949053977707471</v>
+        <v>0.9520672793097094</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9831235697940504</v>
+        <v>0.9821700991609459</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9817191231612061</v>
+        <v>0.9798582482790044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9831235697940504</v>
+        <v>0.9821700991609459</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9758785558480558</v>
+        <v>0.9743678026979405</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9956332717759311</v>
+        <v>0.9960114599751793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9959954233409611</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9934258723732408</v>
+        <v>0.9939971522135932</v>
       </c>
     </row>
   </sheetData>

--- a/models/metrics_summary_file.xlsx
+++ b/models/metrics_summary_file.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9486052086738586</v>
+        <v>0.9491718426501036</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9433161214647867</v>
+        <v>0.9426918936441059</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9486052086738586</v>
+        <v>0.9491718426501036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9382786794254259</v>
+        <v>0.9391940794492998</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04877967799411079</v>
+        <v>0.04917047533658256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05065704200262323</v>
+        <v>0.05170874394112805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04877967799411079</v>
+        <v>0.04917047533658256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0515471361401281</v>
+        <v>0.05190083649725931</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7841342486651411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7778073184435872</v>
+        <v>0.7827531428937272</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7841342486651411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7768471823643884</v>
+        <v>0.7817840011395607</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9387871853546911</v>
+        <v>0.9426964149504196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9303150110476461</v>
+        <v>0.9298070662170463</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9387871853546911</v>
+        <v>0.9426964149504196</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9243321669195723</v>
+        <v>0.9268220738024783</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9616704805491991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9572450669015721</v>
+        <v>0.9570251969241007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9616704805491991</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9520672793097094</v>
+        <v>0.9535658691269763</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9821700991609459</v>
+        <v>0.981788710907704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9798582482790044</v>
+        <v>0.9798750560049453</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9821700991609459</v>
+        <v>0.981788710907704</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9743678026979405</v>
+        <v>0.9742153566362635</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9960114599751793</v>
+        <v>0.9958223295113052</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9958047292143402</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9939971522135932</v>
+        <v>0.9937115031449043</v>
       </c>
     </row>
   </sheetData>

--- a/models/metrics_summary_file.xlsx
+++ b/models/metrics_summary_file.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9491718426501036</v>
+        <v>0.9485561730412988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9426918936441059</v>
+        <v>0.9436283734534584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9491718426501036</v>
+        <v>0.9485561730412988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9391940794492998</v>
+        <v>0.938428932084366</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04917047533658256</v>
+        <v>0.04968221054436373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05170874394112805</v>
+        <v>0.05221303039029642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04917047533658256</v>
+        <v>0.04968221054436373</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05190083649725931</v>
+        <v>0.05227333789916834</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7841342486651411</v>
+        <v>0.7744088482074752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7827531428937272</v>
+        <v>0.7734731084232268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7841342486651411</v>
+        <v>0.7744088482074752</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7817840011395607</v>
+        <v>0.7714072983942493</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9426964149504196</v>
+        <v>0.9405987795575896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298070662170463</v>
+        <v>0.9304603750798308</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9426964149504196</v>
+        <v>0.9405987795575896</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9268220738024783</v>
+        <v>0.9245407920573188</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9616704805491991</v>
+        <v>0.9610983981693364</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9570251969241007</v>
+        <v>0.9569284490317792</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9616704805491991</v>
+        <v>0.9610983981693364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9535658691269763</v>
+        <v>0.9550552848161827</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.981788710907704</v>
+        <v>0.9814073226544622</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9798750560049453</v>
+        <v>0.9792672555876767</v>
       </c>
       <c r="D8" t="n">
-        <v>0.981788710907704</v>
+        <v>0.9814073226544622</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9742153566362635</v>
+        <v>0.9731010075702327</v>
       </c>
     </row>
     <row r="9">
